--- a/package_arch.xlsx
+++ b/package_arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\Documents\codex\py\machine learning\source\0. qsi\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7507D19A-93FB-4783-907B-3804E2A762CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637E741-E257-4090-B591-1380275A1504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="5076" windowWidth="19776" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="1224" windowWidth="19776" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>qsi.io</t>
   </si>
@@ -79,14 +79,200 @@
   </si>
   <si>
     <t>classifiability analysis</t>
+  </si>
+  <si>
+    <t>qsi.cs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adaptive compressed sensing of Raman spectroscopic profiling data for discriminative tasks [J]. Talanta, SCI, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.057. JCR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2020, doi: 10.1016/j.talanta.2019.120681</t>
+    </r>
+  </si>
+  <si>
+    <t>qsi.cla.nnrw</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spectroscopic Profiling-based Geographic Herb Identification by Neural Network with Random Weights [J]. Spectrochimica Acta Part A: Molecular and Biomolecular Spectroscopy, SCI, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.098. JCR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2022, doi: 10.1016/j.saa.2022.121348</t>
+    </r>
+  </si>
+  <si>
+    <t>neural networks with random weights</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A unified classifiability analysis framework based on meta-learner and its application in spectroscopic profiling data [J]. Applied Intelligence, SCI, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5.086. JCR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2021, doi: 10.1007/s10489-021-02810-8
+pyCLAMs: An integrated Python toolkit for classifiability analysis [J]. SoftwareX, SCI, IF 1.959, 2022, doi: 10.1016/j.softx.2022.101007</t>
+    </r>
+  </si>
+  <si>
+    <t>compressed sensing</t>
+  </si>
+  <si>
+    <t>cs1</t>
+  </si>
+  <si>
+    <t>pyDRMetrics, wDRMetrics</t>
+  </si>
+  <si>
+    <t>pyCLAMs, wCLAMs</t>
+  </si>
+  <si>
+    <t>pyMFDR</t>
+  </si>
+  <si>
+    <t>standalone pypi package</t>
+  </si>
+  <si>
+    <t>pyNNRW</t>
+  </si>
+  <si>
+    <t>qsi.fs</t>
+  </si>
+  <si>
+    <t>feature selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,8 +300,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,90 +588,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="105.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="9900" divId="package_arch_9900" sourceType="range" sourceRef="A1:E10" destinationFile="C:\Users\eleve\Desktop\package_arch.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>